--- a/Energy Consumption18.xlsx
+++ b/Energy Consumption18.xlsx
@@ -450,10 +450,10 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>6.113151815304998</v>
+        <v>0.7460932908215167</v>
       </c>
       <c r="C2" t="n">
-        <v>1.730740073846618</v>
+        <v>1.495811809543383</v>
       </c>
     </row>
     <row r="3">
@@ -461,10 +461,10 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>10.57413998121331</v>
+        <v>11.82099694545185</v>
       </c>
       <c r="C3" t="n">
-        <v>3.829873903974765</v>
+        <v>3.160810073292703</v>
       </c>
     </row>
     <row r="4">
@@ -472,10 +472,10 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>13.28624959726396</v>
+        <v>12.67176373054251</v>
       </c>
       <c r="C4" t="n">
-        <v>6.294155313697163</v>
+        <v>4.829723584731859</v>
       </c>
     </row>
     <row r="5">
@@ -483,10 +483,10 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>15.86278016260814</v>
+        <v>12.95651089723617</v>
       </c>
       <c r="C5" t="n">
-        <v>8.061607295151378</v>
+        <v>6.449940604911695</v>
       </c>
     </row>
     <row r="6">
@@ -494,10 +494,10 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>18.09308396843484</v>
+        <v>14.23430611335822</v>
       </c>
       <c r="C6" t="n">
-        <v>10.33216340723225</v>
+        <v>8.226664884342259</v>
       </c>
     </row>
     <row r="7">
@@ -505,10 +505,10 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>21.35963562539474</v>
+        <v>16.22560760052146</v>
       </c>
       <c r="C7" t="n">
-        <v>12.609402873565</v>
+        <v>9.969156279425475</v>
       </c>
     </row>
     <row r="8">
@@ -516,10 +516,10 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>25.61693204269318</v>
+        <v>16.78328070220875</v>
       </c>
       <c r="C8" t="n">
-        <v>14.5746443387923</v>
+        <v>11.51781926214407</v>
       </c>
     </row>
     <row r="9">
@@ -527,10 +527,10 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>26.14164926132595</v>
+        <v>18.35236083029099</v>
       </c>
       <c r="C9" t="n">
-        <v>16.59923141188767</v>
+        <v>13.02751198800834</v>
       </c>
     </row>
     <row r="10">
@@ -538,10 +538,10 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>27.61926743730241</v>
+        <v>19.29107040345616</v>
       </c>
       <c r="C10" t="n">
-        <v>18.5838662978865</v>
+        <v>14.70912995463671</v>
       </c>
     </row>
     <row r="11">
@@ -549,10 +549,10 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>32.86416929575834</v>
+        <v>22.01654219451287</v>
       </c>
       <c r="C11" t="n">
-        <v>20.73125118276564</v>
+        <v>16.30928092003757</v>
       </c>
     </row>
     <row r="12">
@@ -560,10 +560,10 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>33.05454042296152</v>
+        <v>24.3878467458843</v>
       </c>
       <c r="C12" t="n">
-        <v>22.67535402086321</v>
+        <v>18.11931684300703</v>
       </c>
     </row>
     <row r="13">
@@ -571,10 +571,10 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>37.61911042243305</v>
+        <v>24.88758684916857</v>
       </c>
       <c r="C13" t="n">
-        <v>25.0363766154349</v>
+        <v>19.78957274574999</v>
       </c>
     </row>
     <row r="14">
@@ -582,10 +582,10 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>39.1047332503199</v>
+        <v>29.27158397278049</v>
       </c>
       <c r="C14" t="n">
-        <v>27.14167748258079</v>
+        <v>21.37381201218944</v>
       </c>
     </row>
     <row r="15">
@@ -593,10 +593,10 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>40.65292845680394</v>
+        <v>34.39936865213679</v>
       </c>
       <c r="C15" t="n">
-        <v>29.69695983690733</v>
+        <v>22.98183979676146</v>
       </c>
     </row>
     <row r="16">
@@ -604,10 +604,10 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>41.67332447645146</v>
+        <v>34.94233597961408</v>
       </c>
       <c r="C16" t="n">
-        <v>31.7526834048901</v>
+        <v>24.69173610457452</v>
       </c>
     </row>
     <row r="17">
@@ -615,10 +615,10 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>44.70233293657679</v>
+        <v>36.32422648444486</v>
       </c>
       <c r="C17" t="n">
-        <v>33.93778276349003</v>
+        <v>26.29822353286865</v>
       </c>
     </row>
     <row r="18">
@@ -626,10 +626,10 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>46.39096398275158</v>
+        <v>38.13355932778981</v>
       </c>
       <c r="C18" t="n">
-        <v>35.8850629876169</v>
+        <v>28.0665786138402</v>
       </c>
     </row>
     <row r="19">
@@ -637,10 +637,10 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>46.79791134967786</v>
+        <v>40.76623283660203</v>
       </c>
       <c r="C19" t="n">
-        <v>38.19859366139901</v>
+        <v>29.66989491055532</v>
       </c>
     </row>
     <row r="20">
@@ -648,10 +648,10 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>47.78772571607108</v>
+        <v>42.0815696278426</v>
       </c>
       <c r="C20" t="n">
-        <v>40.67714054712155</v>
+        <v>31.47201061719143</v>
       </c>
     </row>
     <row r="21">
@@ -659,10 +659,10 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>48.80723339602933</v>
+        <v>49.22777251594825</v>
       </c>
       <c r="C21" t="n">
-        <v>42.64497842380861</v>
+        <v>32.93921049218886</v>
       </c>
     </row>
     <row r="22">
@@ -670,10 +670,10 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>49.77285570279457</v>
+        <v>51.00453631538158</v>
       </c>
       <c r="C22" t="n">
-        <v>45.30591166593238</v>
+        <v>35.14059556524872</v>
       </c>
     </row>
     <row r="23">
@@ -681,10 +681,10 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>50.91585194725059</v>
+        <v>51.32463410021728</v>
       </c>
       <c r="C23" t="n">
-        <v>47.1765143706234</v>
+        <v>36.81924349588125</v>
       </c>
     </row>
     <row r="24">
@@ -692,10 +692,10 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>52.74243917413995</v>
+        <v>52.78562896435605</v>
       </c>
       <c r="C24" t="n">
-        <v>49.48656974531443</v>
+        <v>38.73890303768326</v>
       </c>
     </row>
     <row r="25">
@@ -703,10 +703,10 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>54.11548907803474</v>
+        <v>55.70576295212567</v>
       </c>
       <c r="C25" t="n">
-        <v>51.38355674961421</v>
+        <v>40.55343750710154</v>
       </c>
     </row>
     <row r="26">
@@ -714,10 +714,10 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>55.34609019309629</v>
+        <v>57.34215450740146</v>
       </c>
       <c r="C26" t="n">
-        <v>53.17823829895614</v>
+        <v>42.35486234004176</v>
       </c>
     </row>
     <row r="27">
@@ -725,10 +725,10 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>56.08605980889742</v>
+        <v>62.24864743419364</v>
       </c>
       <c r="C27" t="n">
-        <v>55.42243160687857</v>
+        <v>44.03161235288869</v>
       </c>
     </row>
     <row r="28">
@@ -736,10 +736,10 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>57.28999314028507</v>
+        <v>66.52937133250907</v>
       </c>
       <c r="C28" t="n">
-        <v>57.52409006509631</v>
+        <v>45.60308546056995</v>
       </c>
     </row>
     <row r="29">
@@ -747,10 +747,10 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>57.91342664963818</v>
+        <v>68.1659268928539</v>
       </c>
       <c r="C29" t="n">
-        <v>59.78914041861106</v>
+        <v>47.36781281737079</v>
       </c>
     </row>
     <row r="30">
@@ -758,10 +758,10 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>59.2493425069809</v>
+        <v>69.45240930068093</v>
       </c>
       <c r="C30" t="n">
-        <v>62.18785242450353</v>
+        <v>49.17779891995099</v>
       </c>
     </row>
     <row r="31">
@@ -769,10 +769,10 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>60.82362840027433</v>
+        <v>70.0956272008829</v>
       </c>
       <c r="C31" t="n">
-        <v>64.21849867159348</v>
+        <v>50.79309677605689</v>
       </c>
     </row>
     <row r="32">
@@ -780,10 +780,10 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>62.36196627391924</v>
+        <v>70.40706527771319</v>
       </c>
       <c r="C32" t="n">
-        <v>66.08022606211951</v>
+        <v>52.2934049211719</v>
       </c>
     </row>
     <row r="33">
@@ -791,10 +791,10 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>62.72536576011841</v>
+        <v>72.33771536605643</v>
       </c>
       <c r="C33" t="n">
-        <v>67.91436071697625</v>
+        <v>53.79565065367358</v>
       </c>
     </row>
     <row r="34">
@@ -802,10 +802,10 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>65.21850827934954</v>
+        <v>73.38277289202919</v>
       </c>
       <c r="C34" t="n">
-        <v>70.11823994117493</v>
+        <v>55.41373920242348</v>
       </c>
     </row>
     <row r="35">
@@ -813,10 +813,10 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>70.44187302535472</v>
+        <v>75.50074034551564</v>
       </c>
       <c r="C35" t="n">
-        <v>72.25427836308477</v>
+        <v>57.06841212270529</v>
       </c>
     </row>
     <row r="36">
@@ -824,10 +824,10 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>72.82623692843347</v>
+        <v>77.3358726272329</v>
       </c>
       <c r="C36" t="n">
-        <v>74.10380068327795</v>
+        <v>58.56839825961777</v>
       </c>
     </row>
     <row r="37">
@@ -835,10 +835,10 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>73.80750684327032</v>
+        <v>80.18632198165018</v>
       </c>
       <c r="C37" t="n">
-        <v>76.50603947407699</v>
+        <v>60.53483666688842</v>
       </c>
     </row>
     <row r="38">
@@ -846,10 +846,10 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>76.03895171909053</v>
+        <v>80.73797171844051</v>
       </c>
       <c r="C38" t="n">
-        <v>78.54604753558999</v>
+        <v>62.32084091449345</v>
       </c>
     </row>
     <row r="39">
@@ -857,10 +857,10 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>80.20266801047698</v>
+        <v>83.47839930979748</v>
       </c>
       <c r="C39" t="n">
-        <v>80.4760242968749</v>
+        <v>64.07487183488219</v>
       </c>
     </row>
     <row r="40">
@@ -868,10 +868,10 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>81.64573253591054</v>
+        <v>85.73130143419417</v>
       </c>
       <c r="C40" t="n">
-        <v>82.35184879472354</v>
+        <v>65.59658717386358</v>
       </c>
     </row>
     <row r="41">
@@ -879,10 +879,10 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>83.83267479659001</v>
+        <v>86.37656856841075</v>
       </c>
       <c r="C41" t="n">
-        <v>85.19103338793319</v>
+        <v>67.1644519209344</v>
       </c>
     </row>
     <row r="42">
@@ -890,10 +890,10 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>84.82997565664286</v>
+        <v>86.7979350073706</v>
       </c>
       <c r="C42" t="n">
-        <v>87.03548246585412</v>
+        <v>68.67014256239486</v>
       </c>
     </row>
     <row r="43">
@@ -901,10 +901,10 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>86.91066263938268</v>
+        <v>91.31469147667551</v>
       </c>
       <c r="C43" t="n">
-        <v>89.29903802212506</v>
+        <v>70.57451601455645</v>
       </c>
     </row>
     <row r="44">
@@ -912,10 +912,10 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>88.31468342306677</v>
+        <v>92.79587986962537</v>
       </c>
       <c r="C44" t="n">
-        <v>91.53020783950414</v>
+        <v>72.79976150410505</v>
       </c>
     </row>
     <row r="45">
@@ -923,10 +923,10 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>88.80580787454386</v>
+        <v>95.45993842329972</v>
       </c>
       <c r="C45" t="n">
-        <v>93.91597221717203</v>
+        <v>74.54725591913616</v>
       </c>
     </row>
     <row r="46">
@@ -934,10 +934,10 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>93.3334188392202</v>
+        <v>96.18789627083585</v>
       </c>
       <c r="C46" t="n">
-        <v>95.85728902052297</v>
+        <v>76.45073886221356</v>
       </c>
     </row>
     <row r="47">
@@ -945,10 +945,10 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>94.97312585058168</v>
+        <v>98.62286575930176</v>
       </c>
       <c r="C47" t="n">
-        <v>97.97770556532596</v>
+        <v>77.95455279832527</v>
       </c>
     </row>
     <row r="48">
@@ -956,10 +956,10 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>97.02992835168598</v>
+        <v>99.56382353471527</v>
       </c>
       <c r="C48" t="n">
-        <v>99.98603217903883</v>
+        <v>79.80071399837608</v>
       </c>
     </row>
   </sheetData>
